--- a/public/data/lime/lime_table_gabon.xlsx
+++ b/public/data/lime/lime_table_gabon.xlsx
@@ -1318,13 +1318,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>5.63</v>
+        <v>4.99</v>
       </c>
       <c r="E2" t="n">
-        <v>4.19</v>
+        <v>2.83</v>
       </c>
       <c r="F2" t="n">
-        <v>2.52</v>
+        <v>0.83</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1365,16 +1365,16 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>6.11</v>
+        <v>5.2</v>
       </c>
       <c r="E3" t="n">
-        <v>4.99</v>
+        <v>3.2</v>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.78</v>
+        <v>4.39</v>
       </c>
       <c r="K3" t="n">
-        <v>6.04</v>
+        <v>0.55</v>
       </c>
       <c r="L3" t="n">
-        <v>4.03</v>
+        <v>0.04</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>6.79</v>
+        <v>5.34</v>
       </c>
       <c r="E4" t="n">
-        <v>5.43</v>
+        <v>2.64</v>
       </c>
       <c r="F4" t="n">
-        <v>3.88</v>
+        <v>1.19</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8.83</v>
+        <v>6.14</v>
       </c>
       <c r="K4" t="n">
-        <v>6.64</v>
+        <v>0.85</v>
       </c>
       <c r="L4" t="n">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1459,13 +1459,13 @@
         <v>92</v>
       </c>
       <c r="D5" t="n">
-        <v>5.24</v>
+        <v>5.06</v>
       </c>
       <c r="E5" t="n">
-        <v>4.62</v>
+        <v>4.23</v>
       </c>
       <c r="F5" t="n">
-        <v>3.89</v>
+        <v>3.26</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.41</v>
+        <v>4.55</v>
       </c>
       <c r="L5" t="n">
-        <v>3.67</v>
+        <v>2.3</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>3.67</v>
+        <v>3.44</v>
       </c>
       <c r="E6" t="n">
-        <v>2.97</v>
+        <v>2.48</v>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1524,16 +1524,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="K6" t="n">
-        <v>1.44</v>
+        <v>0.86</v>
       </c>
       <c r="L6" t="n">
-        <v>0.64</v>
+        <v>0.2</v>
       </c>
       <c r="M6" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1553,13 +1553,13 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>5.09</v>
+        <v>4.91</v>
       </c>
       <c r="E7" t="n">
-        <v>4.46</v>
+        <v>4.07</v>
       </c>
       <c r="F7" t="n">
-        <v>3.73</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>6.47</v>
+        <v>6.29</v>
       </c>
       <c r="E8" t="n">
-        <v>5.85</v>
+        <v>5.47</v>
       </c>
       <c r="F8" t="n">
-        <v>5.12</v>
+        <v>4.51</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.65</v>
+        <v>4.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.74</v>
+        <v>2.66</v>
       </c>
       <c r="L8" t="n">
-        <v>2.67</v>
+        <v>1.05</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
         <v>96</v>
       </c>
       <c r="D9" t="n">
-        <v>5.04</v>
+        <v>4.78</v>
       </c>
       <c r="E9" t="n">
-        <v>4.28</v>
+        <v>3.72</v>
       </c>
       <c r="F9" t="n">
-        <v>3.39</v>
+        <v>2.49</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1665,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.97</v>
+        <v>3.58</v>
       </c>
       <c r="K9" t="n">
-        <v>3.12</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>4.5</v>
+        <v>4.29</v>
       </c>
       <c r="E10" t="n">
-        <v>3.8</v>
+        <v>3.34</v>
       </c>
       <c r="F10" t="n">
-        <v>2.98</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.22</v>
+        <v>2.91</v>
       </c>
       <c r="K10" t="n">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.07</v>
+        <v>0.22</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1741,13 +1741,13 @@
         <v>99</v>
       </c>
       <c r="D11" t="n">
-        <v>5.13</v>
+        <v>4.78</v>
       </c>
       <c r="E11" t="n">
-        <v>4.2</v>
+        <v>3.44</v>
       </c>
       <c r="F11" t="n">
-        <v>3.12</v>
+        <v>2.05</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1788,13 +1788,13 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>6.08</v>
+        <v>5.16</v>
       </c>
       <c r="E12" t="n">
-        <v>4.67</v>
+        <v>2.78</v>
       </c>
       <c r="F12" t="n">
-        <v>3.03</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.47</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>0.72</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>0.05</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>102</v>
       </c>
       <c r="D13" t="n">
-        <v>3.89</v>
+        <v>3.59</v>
       </c>
       <c r="E13" t="n">
-        <v>3.02</v>
+        <v>2.37</v>
       </c>
       <c r="F13" t="n">
-        <v>2.01</v>
+        <v>0.99</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1882,13 +1882,13 @@
         <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>3.03</v>
+        <v>2.72</v>
       </c>
       <c r="E14" t="n">
-        <v>2.14</v>
+        <v>1.49</v>
       </c>
       <c r="F14" t="n">
-        <v>1.16</v>
+        <v>0.46</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.03</v>
+        <v>1.64</v>
       </c>
       <c r="K14" t="n">
-        <v>1.13</v>
+        <v>0.38</v>
       </c>
       <c r="L14" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>104</v>
       </c>
       <c r="D15" t="n">
-        <v>4.02</v>
+        <v>3.68</v>
       </c>
       <c r="E15" t="n">
-        <v>3.07</v>
+        <v>2.34</v>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>1.08</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1947,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.99</v>
+        <v>3.14</v>
       </c>
       <c r="K15" t="n">
-        <v>2.45</v>
+        <v>0.61</v>
       </c>
       <c r="L15" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>105</v>
       </c>
       <c r="D16" t="n">
-        <v>3.53</v>
+        <v>3.27</v>
       </c>
       <c r="E16" t="n">
-        <v>2.61</v>
+        <v>2.06</v>
       </c>
       <c r="F16" t="n">
-        <v>1.54</v>
+        <v>0.72</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>106</v>
       </c>
       <c r="D17" t="n">
-        <v>5.96</v>
+        <v>5.66</v>
       </c>
       <c r="E17" t="n">
-        <v>5.17</v>
+        <v>4.55</v>
       </c>
       <c r="F17" t="n">
-        <v>4.26</v>
+        <v>3.26</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2070,13 +2070,13 @@
         <v>107</v>
       </c>
       <c r="D18" t="n">
-        <v>5.73</v>
+        <v>5.46</v>
       </c>
       <c r="E18" t="n">
-        <v>5.02</v>
+        <v>4.45</v>
       </c>
       <c r="F18" t="n">
-        <v>4.19</v>
+        <v>3.27</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2117,13 +2117,13 @@
         <v>108</v>
       </c>
       <c r="D19" t="n">
-        <v>5.75</v>
+        <v>5.46</v>
       </c>
       <c r="E19" t="n">
-        <v>4.97</v>
+        <v>4.35</v>
       </c>
       <c r="F19" t="n">
-        <v>4.06</v>
+        <v>3.06</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
         <v>110</v>
       </c>
       <c r="D20" t="n">
-        <v>3.13</v>
+        <v>2.61</v>
       </c>
       <c r="E20" t="n">
-        <v>2.15</v>
+        <v>1.15</v>
       </c>
       <c r="F20" t="n">
-        <v>1.08</v>
+        <v>0.21</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2182,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.43</v>
+        <v>2.33</v>
       </c>
       <c r="K20" t="n">
-        <v>2.18</v>
+        <v>0.49</v>
       </c>
       <c r="L20" t="n">
-        <v>0.85</v>
+        <v>0.02</v>
       </c>
       <c r="M20" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2211,13 +2211,13 @@
         <v>111</v>
       </c>
       <c r="D21" t="n">
-        <v>4.36</v>
+        <v>4.21</v>
       </c>
       <c r="E21" t="n">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="F21" t="n">
-        <v>2.88</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2258,16 +2258,16 @@
         <v>112</v>
       </c>
       <c r="D22" t="n">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="E22" t="n">
-        <v>0.69</v>
+        <v>0.12</v>
       </c>
       <c r="F22" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2276,16 +2276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.99</v>
+        <v>1.16</v>
       </c>
       <c r="K22" t="n">
-        <v>0.88</v>
+        <v>0.05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2305,13 +2305,13 @@
         <v>113</v>
       </c>
       <c r="D23" t="n">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="E23" t="n">
-        <v>2.01</v>
+        <v>1.54</v>
       </c>
       <c r="F23" t="n">
-        <v>1.13</v>
+        <v>0.61</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="K23" t="n">
-        <v>1.29</v>
+        <v>0.82</v>
       </c>
       <c r="L23" t="n">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2352,13 +2352,13 @@
         <v>115</v>
       </c>
       <c r="D24" t="n">
-        <v>4.3</v>
+        <v>4.11</v>
       </c>
       <c r="E24" t="n">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="F24" t="n">
-        <v>2.79</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>116</v>
       </c>
       <c r="D25" t="n">
-        <v>4.91</v>
+        <v>4.66</v>
       </c>
       <c r="E25" t="n">
-        <v>4.11</v>
+        <v>3.56</v>
       </c>
       <c r="F25" t="n">
-        <v>3.18</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2417,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.27</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>2.16</v>
+        <v>1.12</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2446,13 +2446,13 @@
         <v>117</v>
       </c>
       <c r="D26" t="n">
-        <v>4.91</v>
+        <v>4.71</v>
       </c>
       <c r="E26" t="n">
-        <v>4.17</v>
+        <v>3.73</v>
       </c>
       <c r="F26" t="n">
-        <v>3.31</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>118</v>
       </c>
       <c r="D27" t="n">
-        <v>4.47</v>
+        <v>4.29</v>
       </c>
       <c r="E27" t="n">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="F27" t="n">
-        <v>2.99</v>
+        <v>2.37</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2540,13 +2540,13 @@
         <v>120</v>
       </c>
       <c r="D28" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="E28" t="n">
-        <v>2.93</v>
+        <v>2.54</v>
       </c>
       <c r="F28" t="n">
-        <v>2.19</v>
+        <v>1.55</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>3.66</v>
       </c>
       <c r="K28" t="n">
-        <v>2.91</v>
+        <v>2.28</v>
       </c>
       <c r="L28" t="n">
-        <v>1.69</v>
+        <v>0.68</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2587,13 +2587,13 @@
         <v>121</v>
       </c>
       <c r="D29" t="n">
-        <v>3.44</v>
+        <v>3.26</v>
       </c>
       <c r="E29" t="n">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="F29" t="n">
-        <v>1.99</v>
+        <v>1.33</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>122</v>
       </c>
       <c r="D30" t="n">
-        <v>4.16</v>
+        <v>3.92</v>
       </c>
       <c r="E30" t="n">
-        <v>3.44</v>
+        <v>2.91</v>
       </c>
       <c r="F30" t="n">
-        <v>2.59</v>
+        <v>1.77</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2652,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.52</v>
+        <v>3.95</v>
       </c>
       <c r="K30" t="n">
-        <v>2.84</v>
+        <v>1.62</v>
       </c>
       <c r="L30" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2681,40 +2681,40 @@
         <v>124</v>
       </c>
       <c r="D31" t="n">
-        <v>6.48</v>
+        <v>5.12</v>
       </c>
       <c r="E31" t="n">
-        <v>5.08</v>
+        <v>2.51</v>
       </c>
       <c r="F31" t="n">
-        <v>3.45</v>
+        <v>0.7</v>
       </c>
       <c r="G31" t="n">
-        <v>4.74</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.78</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.03</v>
+        <v>0.89</v>
       </c>
       <c r="L31" t="n">
-        <v>2.01</v>
+        <v>0.03</v>
       </c>
       <c r="M31" t="n">
-        <v>4.38</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2728,13 +2728,13 @@
         <v>125</v>
       </c>
       <c r="D32" t="n">
-        <v>6.41</v>
+        <v>5.13</v>
       </c>
       <c r="E32" t="n">
-        <v>5.16</v>
+        <v>2.71</v>
       </c>
       <c r="F32" t="n">
-        <v>3.71</v>
+        <v>1.12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2746,22 +2746,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.76</v>
+        <v>3.09</v>
       </c>
       <c r="K32" t="n">
-        <v>3.26</v>
+        <v>0.73</v>
       </c>
       <c r="L32" t="n">
-        <v>1.6</v>
+        <v>0.05</v>
       </c>
       <c r="M32" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2775,13 +2775,13 @@
         <v>126</v>
       </c>
       <c r="D33" t="n">
-        <v>5.12</v>
+        <v>4.66</v>
       </c>
       <c r="E33" t="n">
-        <v>4.19</v>
+        <v>3.23</v>
       </c>
       <c r="F33" t="n">
-        <v>3.11</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2793,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.24</v>
+        <v>3.03</v>
       </c>
       <c r="K33" t="n">
-        <v>2.75</v>
+        <v>0.87</v>
       </c>
       <c r="L33" t="n">
-        <v>1.15</v>
+        <v>0.06</v>
       </c>
       <c r="M33" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2869,13 +2869,13 @@
         <v>129</v>
       </c>
       <c r="D35" t="n">
-        <v>3.63</v>
+        <v>3.42</v>
       </c>
       <c r="E35" t="n">
-        <v>2.83</v>
+        <v>2.39</v>
       </c>
       <c r="F35" t="n">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>130</v>
       </c>
       <c r="D36" t="n">
-        <v>4.38</v>
+        <v>4.23</v>
       </c>
       <c r="E36" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="F36" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2934,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3.78</v>
+        <v>3.43</v>
       </c>
       <c r="K36" t="n">
-        <v>2.28</v>
+        <v>1.52</v>
       </c>
       <c r="L36" t="n">
-        <v>0.65</v>
+        <v>0.1</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2963,13 +2963,13 @@
         <v>131</v>
       </c>
       <c r="D37" t="n">
-        <v>5.24</v>
+        <v>5.03</v>
       </c>
       <c r="E37" t="n">
-        <v>4.28</v>
+        <v>3.82</v>
       </c>
       <c r="F37" t="n">
-        <v>3.15</v>
+        <v>2.44</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>132</v>
       </c>
       <c r="D38" t="n">
-        <v>4.45</v>
+        <v>4.24</v>
       </c>
       <c r="E38" t="n">
-        <v>3.62</v>
+        <v>3.17</v>
       </c>
       <c r="F38" t="n">
-        <v>2.64</v>
+        <v>1.91</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.94</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
-        <v>2.55</v>
+        <v>1.72</v>
       </c>
       <c r="L38" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
